--- a/data/trans_dic/CoTrAQ_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/CoTrAQ_R2-Habitat-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.08386616340755237</v>
+        <v>0.08457685057807696</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1831797759038337</v>
+        <v>0.1803299471241391</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.08019851969456833</v>
+        <v>0.07798862725176506</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2243783766191286</v>
+        <v>0.2267911844770586</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.09442924213368845</v>
+        <v>0.09207444633533571</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2187715110908702</v>
+        <v>0.2176075425966117</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1708182560917924</v>
+        <v>0.1696553500930666</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2975823705293865</v>
+        <v>0.2923385089974502</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1953416999410321</v>
+        <v>0.1870686052407424</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.364829397710912</v>
+        <v>0.3660013560357406</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1620364215427013</v>
+        <v>0.1617536937238275</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3047839379913746</v>
+        <v>0.3043570486810409</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1095738210544611</v>
+        <v>0.1105099922664772</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1753840249002129</v>
+        <v>0.1834202279175777</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1197643479379604</v>
+        <v>0.1167852296950613</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2025899607139959</v>
+        <v>0.1995769612985294</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1228333103540144</v>
+        <v>0.1212341502027576</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1966234750591453</v>
+        <v>0.1985925947369536</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1825114586114227</v>
+        <v>0.1860142731692886</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2617175291530675</v>
+        <v>0.2575431694924376</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2198828017570838</v>
+        <v>0.2123735472550862</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3046856288115813</v>
+        <v>0.3059949187304354</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.180362766498048</v>
+        <v>0.1825965309535454</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2639802514768144</v>
+        <v>0.2646436420269271</v>
       </c>
     </row>
     <row r="10">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09935081606662155</v>
+        <v>0.09873552383274833</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2878278720076106</v>
+        <v>0.2871452885243221</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1332465179639497</v>
+        <v>0.1312969890335161</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2938402310633745</v>
+        <v>0.2986138724375069</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1235599757959751</v>
+        <v>0.125110596070488</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3057655627503025</v>
+        <v>0.3070589616867714</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1861479824412466</v>
+        <v>0.1812423635532235</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3952269890778507</v>
+        <v>0.3965221155148541</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2487079870679081</v>
+        <v>0.2521904319329926</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4079026377533676</v>
+        <v>0.4114992294744762</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1949019519150798</v>
+        <v>0.1936749873174572</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3847452385960203</v>
+        <v>0.3876294616379521</v>
       </c>
     </row>
     <row r="13">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.09654230086055834</v>
+        <v>0.09517867559338267</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1450307129802897</v>
+        <v>0.1445565525528494</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1438085598980574</v>
+        <v>0.1416034141872779</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2198539136251619</v>
+        <v>0.2143079133110025</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1264623271841838</v>
+        <v>0.1258288191398454</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1901090452376045</v>
+        <v>0.186091156652648</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1613410441716786</v>
+        <v>0.1668366912663681</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2223827802617827</v>
+        <v>0.2241700040503952</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2391862775489401</v>
+        <v>0.2414389029347111</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3167299654502951</v>
+        <v>0.3168424601967026</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1827567465094899</v>
+        <v>0.1815061278485829</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2536360183754179</v>
+        <v>0.2472320195750966</v>
       </c>
     </row>
     <row r="16">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1135938181603708</v>
+        <v>0.1149168300121982</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2190915323097553</v>
+        <v>0.2194150384677822</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1467473428144407</v>
+        <v>0.147216606164275</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2594779409927973</v>
+        <v>0.2632397326101238</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1331397933083776</v>
+        <v>0.1328389583477025</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2433321168799105</v>
+        <v>0.2453254466744883</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.151642603299543</v>
+        <v>0.1528877348235676</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2669959674422638</v>
+        <v>0.2657834390605909</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.197948588015199</v>
+        <v>0.1997483089284087</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3166267874905435</v>
+        <v>0.3185282604490743</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1636562063974429</v>
+        <v>0.1647972711498612</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2794167233181518</v>
+        <v>0.2816053054998268</v>
       </c>
     </row>
     <row r="19">
@@ -1191,22 +1191,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>22391</v>
+        <v>22580</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>44205</v>
+        <v>43517</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>12396</v>
+        <v>12054</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>36850</v>
+        <v>37246</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>39806</v>
+        <v>38813</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>88723</v>
+        <v>88251</v>
       </c>
     </row>
     <row r="7">
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>45605</v>
+        <v>45295</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>71813</v>
+        <v>70547</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>30193</v>
+        <v>28914</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>59917</v>
+        <v>60109</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>68305</v>
+        <v>68186</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>123606</v>
+        <v>123433</v>
       </c>
     </row>
     <row r="8">
@@ -1299,22 +1299,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>43628</v>
+        <v>44001</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>72477</v>
+        <v>75798</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>30881</v>
+        <v>30113</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>55257</v>
+        <v>54435</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>80580</v>
+        <v>79531</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>134883</v>
+        <v>136234</v>
       </c>
     </row>
     <row r="11">
@@ -1325,22 +1325,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>72669</v>
+        <v>74064</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>108154</v>
+        <v>106429</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>56697</v>
+        <v>54761</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>83103</v>
+        <v>83460</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>118321</v>
+        <v>119786</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>181090</v>
+        <v>181545</v>
       </c>
     </row>
     <row r="12">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>30470</v>
+        <v>30281</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>104415</v>
+        <v>104168</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>27251</v>
+        <v>26853</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>79197</v>
+        <v>80484</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>63165</v>
+        <v>63958</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>193334</v>
+        <v>194152</v>
       </c>
     </row>
     <row r="15">
@@ -1433,22 +1433,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>57090</v>
+        <v>55586</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>143376</v>
+        <v>143846</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>50866</v>
+        <v>51578</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>109940</v>
+        <v>110909</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>99636</v>
+        <v>99009</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>243272</v>
+        <v>245096</v>
       </c>
     </row>
     <row r="16">
@@ -1515,22 +1515,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>39007</v>
+        <v>38456</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>57867</v>
+        <v>57678</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>40958</v>
+        <v>40330</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>71557</v>
+        <v>69752</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>87114</v>
+        <v>86677</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>137729</v>
+        <v>134818</v>
       </c>
     </row>
     <row r="19">
@@ -1541,22 +1541,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>65188</v>
+        <v>67409</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>88731</v>
+        <v>89444</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>68123</v>
+        <v>68764</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>103087</v>
+        <v>103124</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>125892</v>
+        <v>125031</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>183753</v>
+        <v>179113</v>
       </c>
     </row>
     <row r="20">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>156291</v>
+        <v>158111</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>310307</v>
+        <v>310766</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>132329</v>
+        <v>132752</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>267777</v>
+        <v>271659</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>303242</v>
+        <v>302557</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>595754</v>
+        <v>600635</v>
       </c>
     </row>
     <row r="23">
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>208641</v>
+        <v>210355</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>378156</v>
+        <v>376439</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>178499</v>
+        <v>180122</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>326753</v>
+        <v>328715</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>372747</v>
+        <v>375346</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>684101</v>
+        <v>689459</v>
       </c>
     </row>
     <row r="24">
